--- a/新学校第一期收入预算1.xlsx
+++ b/新学校第一期收入预算1.xlsx
@@ -521,7 +521,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
